--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_original/ori5/42/correct_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_original/ori5/42/correct_predictions_42.xlsx
@@ -476,12 +476,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Only infrared sensors available</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11-14</t>
+          <t>6-9</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -506,22 +506,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Backward ambient light too low</t>
+          <t>Only infrared sensors available</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>11-14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -536,52 +536,52 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16-18</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
+          <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Compass abnormal</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>16-18</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -596,22 +596,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>The ground or walls may contain metal</t>
+          <t>Compass abnormal</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>17-23</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -626,12 +626,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Solution: 1. Ensure there are no magnets or metal objects near the aircraft</t>
+          <t>The ground or walls may contain metal</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3-15</t>
+          <t>17-23</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -656,12 +656,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Move away from sources of interference before attempting flight</t>
+          <t>Solution: 1. Ensure there are no magnets or metal objects near the aircraft</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>25-33</t>
+          <t>3-15</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -677,31 +677,31 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
+          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Downward ambient light too low</t>
+          <t>Move away from sources of interference before attempting flight</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>25-33</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -716,22 +716,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Only infrared sensors available</t>
+          <t>Downward ambient light too low</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>25-28</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -746,12 +746,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Obstacle avoidance unavailable</t>
+          <t>Only infrared sensors available</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>25-28</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -776,12 +776,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>Obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>20-23</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -806,12 +806,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>30-32</t>
+          <t>20-23</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -836,22 +836,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Backward ambient light too low</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>14-18</t>
+          <t>30-32</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_original/ori5/42/correct_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_original/ori5/42/correct_predictions_42.xlsx
@@ -476,12 +476,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>Only infrared sensors available</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6-9</t>
+          <t>11-14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -506,22 +506,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Only infrared sensors available</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11-14</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -536,52 +536,52 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Backward ambient light too low</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>16-18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
+          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Compass abnormal</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>16-18</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -596,22 +596,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Compass abnormal</t>
+          <t>The ground or walls may contain metal</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>17-23</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -626,12 +626,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>The ground or walls may contain metal</t>
+          <t>Solution: 1. Ensure there are no magnets or metal objects near the aircraft</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>17-23</t>
+          <t>3-15</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -656,12 +656,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Solution: 1. Ensure there are no magnets or metal objects near the aircraft</t>
+          <t>Move away from sources of interference before attempting flight</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3-15</t>
+          <t>25-33</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -677,31 +677,31 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
+          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Move away from sources of interference before attempting flight</t>
+          <t>Downward ambient light too low</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>25-33</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -716,22 +716,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Downward ambient light too low</t>
+          <t>Only infrared sensors available</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>25-28</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -746,12 +746,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Only infrared sensors available</t>
+          <t>Obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>25-28</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -776,12 +776,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Obstacle avoidance unavailable</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>20-23</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -806,12 +806,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>20-23</t>
+          <t>30-32</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -836,22 +836,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>30-32</t>
+          <t>14-18</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
